--- a/2.xlsx
+++ b/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haroo\Desktop\Course\Course 1 Final\02 Example 2 - Cleaning Dates Formatting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSComarch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B45E0D-1557-41AB-8DCB-4E727AD55003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565FB32C-B496-4F58-A698-CF0AEF29ED42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>Row</t>
   </si>
@@ -39,30 +39,18 @@
     <t>Date of Activation</t>
   </si>
   <si>
-    <t>Region of Activation</t>
-  </si>
-  <si>
     <t>Alan Turing</t>
   </si>
   <si>
-    <t>Northeast</t>
-  </si>
-  <si>
     <t>Grace Hopper</t>
   </si>
   <si>
-    <t>West</t>
-  </si>
-  <si>
     <t>Ada Lovelace</t>
   </si>
   <si>
     <t>Charles Babbage</t>
   </si>
   <si>
-    <t>South</t>
-  </si>
-  <si>
     <t>Katherine Johnson</t>
   </si>
   <si>
@@ -163,12 +151,120 @@
   </si>
   <si>
     <t>Dates Cleaning using ChatGPT</t>
+  </si>
+  <si>
+    <t>Data (mm/dd/yyyy)</t>
+  </si>
+  <si>
+    <t>Błąd daty</t>
+  </si>
+  <si>
+    <t>01.02.2022</t>
+  </si>
+  <si>
+    <t>03.15.2022</t>
+  </si>
+  <si>
+    <t>04.04.2022</t>
+  </si>
+  <si>
+    <t>05.20.2022</t>
+  </si>
+  <si>
+    <t>05.25.2022</t>
+  </si>
+  <si>
+    <t>06.06.2022</t>
+  </si>
+  <si>
+    <t>07.07.2022</t>
+  </si>
+  <si>
+    <t>08.08.2022</t>
+  </si>
+  <si>
+    <t>09.09.2022</t>
+  </si>
+  <si>
+    <t>10.10.2022</t>
+  </si>
+  <si>
+    <t>11.11.2022</t>
+  </si>
+  <si>
+    <t>12.12.2022</t>
+  </si>
+  <si>
+    <t>12.13.2022</t>
+  </si>
+  <si>
+    <t>12.14.2022</t>
+  </si>
+  <si>
+    <t>01.15.2023</t>
+  </si>
+  <si>
+    <t>02.16.2023</t>
+  </si>
+  <si>
+    <t>02.17.2023</t>
+  </si>
+  <si>
+    <t>03.18.2023</t>
+  </si>
+  <si>
+    <t>03.19.2023</t>
+  </si>
+  <si>
+    <t>04.20.2023</t>
+  </si>
+  <si>
+    <t>04.21.2023</t>
+  </si>
+  <si>
+    <t>04.22.2023</t>
+  </si>
+  <si>
+    <t>05.23.2023</t>
+  </si>
+  <si>
+    <t>05.24.2023</t>
+  </si>
+  <si>
+    <t>05.25.2023</t>
+  </si>
+  <si>
+    <t>06.26.2023</t>
+  </si>
+  <si>
+    <t>06.27.2023</t>
+  </si>
+  <si>
+    <t>07.28.2023</t>
+  </si>
+  <si>
+    <t>07.29.2023</t>
+  </si>
+  <si>
+    <t>08.30.2023</t>
+  </si>
+  <si>
+    <t>Data_PL</t>
+  </si>
+  <si>
+    <t>Data (dd/mm/yyyy)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd\/mm\/yyyy"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -291,15 +387,22 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,39 +681,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="5.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="10" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="9"/>
+    <col min="9" max="9" width="8.85546875" style="3"/>
+    <col min="10" max="10" width="23" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
@@ -620,428 +770,707 @@
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="7">
         <v>44563</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="12">
+        <v>44563</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="13">
+        <v>44563</v>
+      </c>
+      <c r="K6" s="14">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7">
         <v>44635</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="12">
+        <v>44635</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="13">
+        <v>44635</v>
+      </c>
+      <c r="K7" s="14">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
         <v>44655</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="12">
+        <v>44655</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="13">
+        <v>44655</v>
+      </c>
+      <c r="K8" s="14">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="7">
         <v>44701</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="12">
+        <v>44701</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="13">
+        <v>44701</v>
+      </c>
+      <c r="K9" s="14">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="9">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8">
         <v>44706</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="12">
+        <v>44706</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="13">
+        <v>44706</v>
+      </c>
+      <c r="K10" s="14">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11" s="7">
         <v>44718</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="12">
+        <v>44718</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="13">
+        <v>44718</v>
+      </c>
+      <c r="K11" s="14">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8">
         <v>44749</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="12">
+        <v>44749</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="13">
+        <v>44749</v>
+      </c>
+      <c r="K12" s="14">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12">
+        <v>44781</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="13">
+        <v>44781</v>
+      </c>
+      <c r="K13" s="14">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
         <v>9</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="9">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8">
         <v>44813</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="12">
+        <v>44813</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="13">
+        <v>44813</v>
+      </c>
+      <c r="K14" s="14">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" s="7">
         <v>44844</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="12">
+        <v>44844</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="13">
+        <v>44844</v>
+      </c>
+      <c r="K15" s="14">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" s="7">
         <v>44876</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="12">
+        <v>44876</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="13">
+        <v>44876</v>
+      </c>
+      <c r="K16" s="14">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <v>12</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="9">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8">
         <v>44907</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="12">
+        <v>44907</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="13">
+        <v>44907</v>
+      </c>
+      <c r="K17" s="14">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E18" s="7">
         <v>44908</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="12">
+        <v>44908</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="13">
+        <v>44908</v>
+      </c>
+      <c r="K18" s="14">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9">
+        <v>17</v>
+      </c>
+      <c r="E19" s="8">
         <v>44909</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="12">
+        <v>44909</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="13">
+        <v>44909</v>
+      </c>
+      <c r="K19" s="14">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <v>15</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="F20" s="12">
+        <v>44941</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="13">
+        <v>44941</v>
+      </c>
+      <c r="K20" s="14">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>16</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E21" s="7">
         <v>44973</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="12">
+        <v>44973</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="13">
+        <v>44973</v>
+      </c>
+      <c r="K21" s="14">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="9">
+        <v>21</v>
+      </c>
+      <c r="E22" s="8">
         <v>44974</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="12">
+        <v>44974</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="13">
+        <v>44974</v>
+      </c>
+      <c r="K22" s="14">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <v>18</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E23" s="7">
         <v>45003</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="12">
+        <v>45003</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="13">
+        <v>45003</v>
+      </c>
+      <c r="K23" s="14">
+        <v>45003</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <v>19</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="9">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8">
         <v>45004</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="12">
+        <v>45004</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="13">
+        <v>45004</v>
+      </c>
+      <c r="K24" s="14">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <v>20</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="F25" s="12">
+        <v>45036</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="13">
+        <v>45036</v>
+      </c>
+      <c r="K25" s="14">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
         <v>21</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E26" s="7">
         <v>45037</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="12">
+        <v>45037</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="13">
+        <v>45037</v>
+      </c>
+      <c r="K26" s="14">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
         <v>22</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="9">
+        <v>27</v>
+      </c>
+      <c r="E27" s="8">
         <v>45038</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="12">
+        <v>45038</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="13">
+        <v>45038</v>
+      </c>
+      <c r="K27" s="14">
+        <v>45038</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="5">
         <v>23</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E28" s="7">
         <v>45069</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="12">
+        <v>45069</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="13">
+        <v>45069</v>
+      </c>
+      <c r="K28" s="14">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <v>24</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="9">
+        <v>29</v>
+      </c>
+      <c r="E29" s="8">
         <v>45070</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="12">
+        <v>45070</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="13">
+        <v>45070</v>
+      </c>
+      <c r="K29" s="14">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
         <v>25</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="F30" s="12">
+        <v>45071</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="13">
+        <v>45071</v>
+      </c>
+      <c r="K30" s="14">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="5">
         <v>26</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E31" s="7">
         <v>45103</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="12">
+        <v>45103</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="13">
+        <v>45103</v>
+      </c>
+      <c r="K31" s="14">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
         <v>27</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="9">
+        <v>33</v>
+      </c>
+      <c r="E32" s="8">
         <v>45104</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="12">
+        <v>45104</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="13">
+        <v>45104</v>
+      </c>
+      <c r="K32" s="14">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>28</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E33" s="7">
         <v>45135</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="12">
+        <v>45135</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="13">
+        <v>45135</v>
+      </c>
+      <c r="K33" s="14">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>29</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="9">
+        <v>35</v>
+      </c>
+      <c r="E34" s="8">
         <v>45136</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="12">
+        <v>45136</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="13">
+        <v>45136</v>
+      </c>
+      <c r="K34" s="14">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>30</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="F35" s="12">
+        <v>45168</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="13">
+        <v>45168</v>
+      </c>
+      <c r="K35" s="14">
+        <v>45168</v>
       </c>
     </row>
   </sheetData>
